--- a/interval_bound_propagation/results/training_phase/epsilon_strategy/running_eps_2_255.xlsx
+++ b/interval_bound_propagation/results/training_phase/epsilon_strategy/running_eps_2_255.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,72 +457,2774 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9276</v>
+        <v>0.9445</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9276</v>
+        <v>0.9445</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2633669019428392</v>
+        <v>0.1783392340895565</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2713683624006808</v>
+        <v>0.2066423698578728</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9465</v>
+        <v>0.9326</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9465</v>
+        <v>0.9326</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1639502635951309</v>
+        <v>0.18284411309675</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1923330537567381</v>
+        <v>0.235417900737375</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9516</v>
+        <v>0.9219000000000001</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9516</v>
+        <v>0.9219000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1463547918208254</v>
+        <v>0.265934657608935</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1840888166497462</v>
+        <v>0.3370125405117869</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.945</v>
+        <v>0.9351</v>
       </c>
       <c r="B5" t="n">
-        <v>0.945</v>
+        <v>0.9351</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1647099609758395</v>
+        <v>0.1902419873598652</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2018144512665458</v>
+        <v>0.2551476144231856</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9459</v>
+        <v>0.9029</v>
       </c>
       <c r="B6" t="n">
+        <v>0.9086</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.320566738890484</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4332610139995813</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.9550999999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1148752922350347</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1715602086504805</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.9514</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9602000000000001</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1286055590260851</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1794053578126477</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.9337</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9492</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1872457875683904</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.258272545367945</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.9424</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9572000000000001</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1611535600114924</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2349508904636605</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.9494</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9623</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1524030151711001</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2111438028956764</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.911</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9334</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.3238323895951423</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.413805822711438</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.9359</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9549</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.2063743771971591</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3011014210997382</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.9326</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9554</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2064093558963699</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.2816368014900945</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.9157</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9479</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.297922507324256</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.3708149311039597</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.9366</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9572000000000001</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.221884786542117</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.3108526959782466</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.9149</v>
+      </c>
+      <c r="B17" t="n">
         <v>0.9481000000000001</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.1514989122449576</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.2139202743000351</v>
+      <c r="C17" t="n">
+        <v>0.3487367824825924</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.4462930819462054</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.9338</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.963</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2120812662217456</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.2852228331961669</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.9147</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9456</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3423641562322154</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.4359132762160152</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9679</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1735812056648623</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.2401151902720449</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.9317</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.962</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.2356078749365406</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.3152219423701172</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.9274</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9548</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.241447299750677</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.3305913675343618</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.9194</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9537</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.3213100724504329</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.4116092374059372</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.9370000000000001</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9627</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.2056318536944066</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.2894857730073273</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9571</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.2824328734399751</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.3762210164911812</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.9234</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9557</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.2662386973279839</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.3593230967852287</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.9311</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.9619</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.2490200536496316</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.3330935444391798</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9633</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.2094269892255155</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.28243945258655</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.9298</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.9599</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.2625611369789113</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.3615400147260516</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.9233</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.9587</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.3279465362476185</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.4218329137656838</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.9407</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.9644</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1953636081871809</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.2778944647134995</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.9284</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.9568</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.2623775391827803</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.3739796509605366</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.9265</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.9613</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.2585558749129996</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.3556283061683644</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.9388</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.9654</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.2033970186455796</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.2838306362026924</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.9438</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.9647</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.2016821407782845</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.2612517276247672</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.9261</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.9611</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.263710156030332</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.3603844143263996</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.9364</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.9617</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.2136116608356436</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.2945712033309974</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.9243</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.9545</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.2653204135224223</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.3483854251075536</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.9398</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.9663</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.2037260755031214</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.2792850487022224</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.9288999999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.9555</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.2893422509398079</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.3828149726250558</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.9325</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.9586</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.2197236158465967</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.3065907117212191</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.9318</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.9631999999999999</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.2175248677819036</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.2900160484477965</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.9225</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.9548</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.2989183456458462</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.3825303853000514</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.923</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.9574</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.2521348317452551</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.3303723195963539</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.9173</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.9503</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.3269920485792682</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.4267597831226885</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.9354</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.9651</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.2188743509864434</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.2912409020407358</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.9241</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.9596</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.2750122085989763</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.3703888293891214</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.9232</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.2994543522877696</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.3929227210080717</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.9196</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.9554</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.3066118024929892</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.3851628802856431</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.9106</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.9548</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.3521615650256475</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.4607194843424077</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.9202</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.9572000000000001</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.2909242170723155</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.3762513764144387</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.9252</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.9579</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.2506909211267097</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.3341779721202329</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.9617</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.08529204481834313</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.1565259055869319</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.9633</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.9778</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.07701997561331761</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.1549352789027034</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.9635</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.07245490427109567</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.15473594019144</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.9635</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.9779</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.06981961867403394</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.1555186016730295</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.9635</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.9774</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.0682164991425816</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.1567263750256825</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.9626</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.06696867002863049</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.1579985224636403</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.9616</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.9774</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.06612063548847801</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.1599670140239323</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.9612000000000001</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.06566779169098784</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.1619463715054553</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.9613</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.9779</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.06509584233911786</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.1635297829046431</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.9609</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.9777</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.06470738468594694</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.1650509835623052</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.9607</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.9776</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.06447458017481646</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.1664853368454351</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.9606</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.9777</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.06449177214041507</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.1679964554244725</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.9602000000000001</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.9774</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.06429815578235623</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.1694919205265251</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.9769</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.06414642668746334</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.170592918254697</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.9598</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.9771</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.06386021151081271</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.1719761412516164</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.9601</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.9769</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.06416291816771263</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.1734885292691251</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.9599</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.064029063534205</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.1745699853574479</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.9593</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.9767</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.06413448727844905</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.1761320286616683</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.9592000000000001</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.9767</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.06433397861847577</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.1781553978750162</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.9591</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.9766</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.06455149465754706</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.1791884746234428</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.9589</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.9765</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.06437652341429688</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.1800503347835547</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.9588</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.9764</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.0642338083453554</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.1808350032914313</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.9584</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.9762999999999999</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.06475790548875618</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.182580991978175</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.9581</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.9764</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.06505567226917872</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.1837772182491244</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.9576</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.9766</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.06519414783086783</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.1852934970154456</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.9606</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.9772999999999999</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.05387319976250486</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.1706614474103844</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.9606</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.9771</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.05318828003539238</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.1703187342127785</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.9605</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.0529152502680275</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.1704209669098782</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.9605</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.0527211612117632</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.1706117986056052</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.9607</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.05255774785376464</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.170772109383106</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.9607</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.05243191191616157</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.1709671976397658</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.9605</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.05230786232685205</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.1710984748713963</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.9603</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.0521872103146355</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.1712481459707487</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.9602000000000001</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.9776</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.05210600565614489</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.171439066365856</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.9601</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.9776</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.05202364572944741</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.1716036872618861</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.9776</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.05194007932635335</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.1717278647964122</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.9602000000000001</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.05187357955728657</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.1719071930396603</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.9602000000000001</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.05179593503979656</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.1720568650634959</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.05172810566242939</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.1721654519539879</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.9599</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.05167079425940756</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.1723266313492059</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.9601</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.9774</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.05159764627790234</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.1724123171024257</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.05155410828786747</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.1725748115566239</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.9599</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.05148686359015604</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.1726412684909155</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.9774</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.05144624125328846</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.1727666710971243</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.05139169959370823</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.1728515243006404</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.9599</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.9776</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.05135369866465529</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.1729807273064944</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.9597</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.05131065019930247</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.1730828692780051</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.9598</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.05127553346566856</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.1732024549388007</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.9598</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.05123083098364684</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.1732882851788599</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.9598</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.9774</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.05117895777531278</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.1734050651647704</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.9598</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.9778</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.05085679953917861</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.1734223316641874</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.9599</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.9778</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.05082517424113273</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.1735056756845734</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.9598</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.9778</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.05079544238280505</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.1735428530084755</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.9599</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.9779</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.05077648220739017</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.1736147594633803</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.9595</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.9779</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.05075234993244521</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.1736699261367176</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.9593</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.9779</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.0507301329037485</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.1737513916706666</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.9591</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.9779</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.05070515269568811</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.1738089027156821</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.9592000000000001</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.9779</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.05068774613590601</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.173849410391922</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.9592000000000001</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.9779</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.05067097366748688</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.1739360883396148</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.9592000000000001</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.9779</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.05065278216614388</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.1740012765253778</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.9592000000000001</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.9779</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.05063527585938573</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.1740663951865281</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.9591</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.9778</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.05061413993379877</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.1741155602868821</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.9591</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.9778</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.05060013565933332</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.1742082243475306</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.9778</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.05057764789788052</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.1742259240027488</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.9777</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.0505674708832521</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.1742939084617683</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.9589</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.9777</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.05054198024930277</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.1743375891239702</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.9589</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.9777</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.05053026655262026</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.1744200319315132</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.9589</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.9777</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.05051162318908609</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.1744444926208234</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.9589</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.9777</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.05049428099649958</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.1745465560075536</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.9589</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.9777</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.05048409172139751</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.1745531734149699</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.9589</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.9777</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.05046054511835488</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.1746260723346495</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.9589</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.9777</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.0504428310667087</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.1746786524268828</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.9589</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.9777</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.05043123990821186</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.1747458640008699</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.9588</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.9778</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.05041533755604178</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.1747965455625672</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.9588</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.9778</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.05039854006104482</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.1748471677881753</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.9588</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.9778</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.05038714195912083</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.1749030570930336</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.9588</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.9778</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.05037005529156886</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.1749518631384853</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.9587</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.9778</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.05035429598957611</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.1750038778479939</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.9588</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.9778</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.05034254932717886</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.1750748098051554</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.9588</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.9777</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.05032492303328278</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.1751627114483563</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.9587</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.9777</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.05031546989417014</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.1751860237982328</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.9589</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.9777</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.05029871950566303</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.1752339106855652</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.9588</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.9777</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.05028795357308505</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.1753021288700256</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.9588</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.9777</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.05026078976380328</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.1753340851665416</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.9588</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.9777</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.05025466117309407</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.1754052153452358</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.9589</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.9776</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.05023990813468118</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.1754815313201834</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.9588</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.9777</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.05023062619788107</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.1755358688331035</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.9589</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.9776</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.05021500151546206</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.175574837997483</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.9589</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.9776</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.05020064954898165</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.1756485451126355</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.9588</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.9776</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.05018990202360631</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.1757080124157074</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.9589</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.9776</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.05017833984573371</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.1757378773234086</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.9588</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.9776</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.05016776231563806</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.175824216100882</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.9589</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.9776</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.05015253225205622</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.175869670574757</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.9589</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.05014812393870671</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.1759358120927936</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.9588</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.05012762039589385</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.1759816224345559</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.9588</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.05011869190086145</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.1760385173580289</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.9589</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.0501035239698831</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.1760885129150847</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.9589</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.05009812506265007</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.1761695329791837</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.9588</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.05009447736044725</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.17624743336346</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.9589</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.05008309145244615</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.1762758726044558</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.9588</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.9776</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.05006909942642475</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.176348716853463</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.9588</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.9776</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.05005471284908708</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.1764025353179022</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.9587</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.9776</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.05004971708229277</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.1764834626764059</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.9587</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.9776</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.05003610718801307</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.1765361267459229</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.9587</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.9776</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.05002013530640397</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.1765992175706924</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.9587</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.05001353365854205</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.1766825251176488</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.9587</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.04999881689824785</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.176699246885837</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.9587</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.04998610871688773</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.1767442511716945</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.9587</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.04997834465427635</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.1768406631718972</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.9587</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.04996554585193129</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.1769181614124682</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.9587</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.04995594905417723</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.176943813044345</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9585</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.04994595084455795</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.1770158269103558</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.9585</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.04993046205452022</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.1770683472111705</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.9586</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.04991500826203264</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.1771181649500068</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.9585</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.9776</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.04990934476489201</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.1771843157906551</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.9585</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.04990433207887691</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.17725907309803</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.9585</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.9776</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.04988961266896998</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.1772870460763807</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.9585</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.9776</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.04987302901960599</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.1773761811733857</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.9585</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.9776</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.04986256829986815</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.1774236402256793</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.9585</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.9776</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.04984798183684082</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.1774631858860084</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.9585</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.9776</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.04984015750853966</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.1775431032856432</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.9585</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.9776</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.04982386980846058</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.1775895963340736</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.9585</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.9776</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.04981087383154469</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.1776443902227766</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.9585</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.9776</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.04980265437916387</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.1776936271184968</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.9585</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.9776</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.04979210104133623</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.1777831393402448</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.9585</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.04977391012362205</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.1777697269000055</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.9586</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.04976161239552312</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.1778541392648185</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.9587</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.04975967423369487</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.1779434318670246</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.9585</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.04973701196101805</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.1779717826656997</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.9587</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.04972237345490915</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.1779920365758153</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.9586</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.04971757081802934</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.178073096963999</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.9585</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.04970351394052462</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.1781166612860398</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.9583</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.9774</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.04968519171467051</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.178147807350615</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.9586</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.9772999999999999</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.04968119788837309</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.1782331106031051</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.9587</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.9772999999999999</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.04966266599212153</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.1783043760975852</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.9585</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.9772</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.04965899640946494</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.178369397230199</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.9586</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.9772</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.04963067057930554</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.1783710093035188</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.9587</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.9772</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.0496314755375109</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.1784515164929326</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.9587</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.9771</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.04961650041067817</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.1784856884103647</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.9586</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.9771</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.04960484167037066</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.1785079756030609</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.9586</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.9772</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.04959589035153233</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.1785953835111286</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.9586</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.9772</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.0495935796329286</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.1786664569416462</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.9586</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.9771</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.04956746193541525</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.178680432836336</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.9584</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.9772</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.04955746614219</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.1787301784154988</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.9584</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.9771</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.04954350222736442</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.1787799672796973</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.9585</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.9771</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.04953904137286978</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.178833100602933</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.9586</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.9772</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.04952278072421905</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.1788877451601729</v>
       </c>
     </row>
   </sheetData>
